--- a/LR07/doc/LR_07.xlsx
+++ b/LR07/doc/LR_07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CUDA_CMake\LR07\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E51E89-EEFE-4125-874D-7182A2D8529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934A99FA-5F6D-4DB7-A659-839D2059EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>CUDA</t>
   </si>
@@ -51,43 +51,10 @@
     <t>1 &lt;&lt; 12</t>
   </si>
   <si>
-    <t>1.23484802246094</t>
+    <t>скалярного произведения векторов</t>
   </si>
   <si>
-    <t>0.114688001573086</t>
-  </si>
-  <si>
-    <t>1.07916796207428</t>
-  </si>
-  <si>
-    <t>0.516095995903015</t>
-  </si>
-  <si>
-    <t>1.14617598056793</t>
-  </si>
-  <si>
-    <t>0.0911360010504723</t>
-  </si>
-  <si>
-    <t>1.25379204750061</t>
-  </si>
-  <si>
-    <t>0.315232008695602</t>
-  </si>
-  <si>
-    <t>2.06323194503784</t>
-  </si>
-  <si>
-    <t>4.27315187454224</t>
-  </si>
-  <si>
-    <t>39.4562225341797</t>
-  </si>
-  <si>
-    <t>186.921981811523</t>
-  </si>
-  <si>
-    <t>1 &lt;&lt; 13</t>
+    <t>транспонирование матрицы</t>
   </si>
 </sst>
 </file>
@@ -111,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,12 +86,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -140,6 +126,2297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Скалярного произведения векторов</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Лист1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 &lt;&lt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 &lt;&lt; 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 &lt;&lt; 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 &lt;&lt; 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1 &lt;&lt; 10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1 &lt;&lt; 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2348480224609399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.07916796207428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1461759805679299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2537920475006099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.06323194503784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.456222534179702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF62-4CBF-B746-96379B7DDB97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Лист1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 &lt;&lt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 &lt;&lt; 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 &lt;&lt; 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 &lt;&lt; 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1 &lt;&lt; 10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1 &lt;&lt; 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11468800157308599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51609599590301503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1136001050472301E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31523200869560197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2731518745422399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.92198181152301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF62-4CBF-B746-96379B7DDB97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1180728896"/>
+        <c:axId val="1180725536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1180728896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180725536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1180725536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180728896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>транспонирование матрицы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31501377952755905"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Лист1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 &lt;&lt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 &lt;&lt; 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 &lt;&lt; 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 &lt;&lt; 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1 &lt;&lt; 10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1 &lt;&lt; 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$13:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.97504001855850198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88985598087310802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47388803958893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6016319990158101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1589119434356698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6001280546188399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D153-435C-BB5A-85959F883324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thrust</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Лист1!$A$13:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 &lt;&lt; 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 &lt;&lt; 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 &lt;&lt; 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1 &lt;&lt; 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1 &lt;&lt; 10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1 &lt;&lt; 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17510400712490101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6800003647804302E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11190400272607801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47865599393844599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6435518264770508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>602.61517333984398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D153-435C-BB5A-85959F883324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1108889327"/>
+        <c:axId val="1108889807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1108889327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108889807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1108889807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Время, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108889327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C81B3A-4398-B0A0-52B9-59E7BB7F858C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6E3341-36A7-9CAC-8388-6D78306223C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,98 +2682,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.2348480224609399</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.11468800157308599</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.07916796207428</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.51609599590301503</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.1461759805679299</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.1136001050472301E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.2537920475006099</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.31523200869560197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.06323194503784</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.2731518745422399</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>39.456222534179702</v>
+      </c>
+      <c r="C8" s="2">
+        <v>186.92198181152301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.97504001855850198</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.17510400712490101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.88985598087310802</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.6800003647804302E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.47388803958893</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.11190400272607801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.6016319990158101</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.47865599393844599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.1589119434356698</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.6435518264770508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.6001280546188399</v>
+      </c>
+      <c r="C18" s="2">
+        <v>602.61517333984398</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>